--- a/metadata/SDD-NHANES-HIQ.xlsx
+++ b/metadata/SDD-NHANES-HIQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5928E7C-37D0-264D-9869-3C0A75123772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6068D1-3304-E74A-ACD7-D3B598A4C27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1200" windowWidth="25640" windowHeight="13760" activeTab="5" xr2:uid="{58E4DFD5-BA0B-AC44-8A63-99A3E8BCBB5B}"/>
+    <workbookView xWindow="1440" yWindow="1760" windowWidth="25640" windowHeight="13760" activeTab="5" xr2:uid="{58E4DFD5-BA0B-AC44-8A63-99A3E8BCBB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>Attribute</t>
   </si>
@@ -317,6 +317,72 @@
   </si>
   <si>
     <t>Covered by Indian Health Service</t>
+  </si>
+  <si>
+    <t>HIQ011</t>
+  </si>
+  <si>
+    <t>nhanes:00121</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>nhanes:00122</t>
+  </si>
+  <si>
+    <t>nhanes:00123</t>
+  </si>
+  <si>
+    <t>nhanes:00124</t>
+  </si>
+  <si>
+    <t>nhanes:00125</t>
+  </si>
+  <si>
+    <t>HIQ260</t>
+  </si>
+  <si>
+    <t>Covered by private insurance - Refused</t>
+  </si>
+  <si>
+    <t>Covered by private insurance - Don't know</t>
+  </si>
+  <si>
+    <t>HIQ270</t>
+  </si>
+  <si>
+    <t>nhanes:00126</t>
+  </si>
+  <si>
+    <t>nhanes:00127</t>
+  </si>
+  <si>
+    <t>nhanes:00128</t>
+  </si>
+  <si>
+    <t>nhanes:00129</t>
+  </si>
+  <si>
+    <t>nhanes:00130</t>
+  </si>
+  <si>
+    <t>nhanes:00132</t>
+  </si>
+  <si>
+    <t>nhanes:00131</t>
+  </si>
+  <si>
+    <t>nhanes:00133</t>
+  </si>
+  <si>
+    <t>nhanes:00134</t>
+  </si>
+  <si>
+    <t>nhanes:00135</t>
   </si>
 </sst>
 </file>
@@ -909,15 +975,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E2EEE-9405-3D4B-BE45-6C4EFC175910}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -940,184 +1006,352 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1129,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF1B34-263D-2E4C-9E98-78435580EE88}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,10 +1439,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -1216,7 +1450,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -1227,7 +1461,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -1238,7 +1472,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -1249,7 +1483,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -1260,7 +1494,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -1271,7 +1505,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -1282,7 +1516,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -1293,7 +1527,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -1304,12 +1538,45 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
       </c>
     </row>

--- a/metadata/SDD-NHANES-HIQ.xlsx
+++ b/metadata/SDD-NHANES-HIQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6068D1-3304-E74A-ACD7-D3B598A4C27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5FC538-66C7-5042-9DD3-DE22EB367FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1760" windowWidth="25640" windowHeight="13760" activeTab="5" xr2:uid="{58E4DFD5-BA0B-AC44-8A63-99A3E8BCBB5B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>Attribute</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>nhanes:00135</t>
+  </si>
+  <si>
+    <t>nhanes:00090</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1186,7 @@
         <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
